--- a/document/otros/data17-02-25 - copia.xlsx
+++ b/document/otros/data17-02-25 - copia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ExcelDataSync\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ExcelDataSync\document\otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40387F2A-77C4-4D0A-8209-1C230FE11CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DF3B99-6769-40F4-8B4E-0A044CDB4D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9954,7 +9954,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9968,14 +9968,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9985,18 +9979,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFBE3D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -10070,7 +10052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -10109,21 +10091,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10512,8 +10479,8 @@
   </sheetPr>
   <dimension ref="A1:Z540"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10547,40 +10514,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -10595,34 +10562,34 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
